--- a/sort/test_with_int.xlsx
+++ b/sort/test_with_int.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\os\lab_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\OC\sort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF730E7-3EAF-45AC-A87C-9F88FAD3E069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9170C3FD-2A51-4B98-90D8-F327B50545BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-255" yWindow="2790" windowWidth="16080" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -303,106 +299,106 @@
                   <c:v>1.8418664760228771</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4812642554578039</c:v>
+                  <c:v>2.7282909742587163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2713997203666303</c:v>
+                  <c:v>3.4687483817513334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.119997680083517</c:v>
+                  <c:v>3.8849901403549469</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0971683105313395</c:v>
+                  <c:v>4.2624880687241493</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98255595848443167</c:v>
+                  <c:v>4.1881330498937102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0045851391244269</c:v>
+                  <c:v>4.2073362225990829</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0015727226975339</c:v>
+                  <c:v>4.2139531957725209</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99799095931692616</c:v>
+                  <c:v>4.2054871923656449</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.98980860054685571</c:v>
+                  <c:v>4.1626273924931647</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97515452672403347</c:v>
+                  <c:v>4.0592049448551695</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.96148691953621157</c:v>
+                  <c:v>3.9028724581949543</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.93110182824282539</c:v>
+                  <c:v>3.6339716812238918</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.98424818453652274</c:v>
+                  <c:v>3.5767300299017513</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.95942622950819678</c:v>
+                  <c:v>3.431608606557377</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.98046109799588133</c:v>
+                  <c:v>3.364558742277362</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93303027462742516</c:v>
+                  <c:v>3.1392351673071515</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.88002639501794044</c:v>
+                  <c:v>2.7626098073988534</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.95535855003940118</c:v>
+                  <c:v>2.6392828999211977</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0219036881945562</c:v>
+                  <c:v>2.6970929296182962</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.94000984065705306</c:v>
+                  <c:v>2.5352938950077588</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97660235085384794</c:v>
+                  <c:v>2.4759739779699861</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91327684569422396</c:v>
+                  <c:v>2.2612497046214091</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.96542171815930122</c:v>
+                  <c:v>2.183059575022813</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.95126488095238093</c:v>
+                  <c:v>2.0766679067460316</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.96673260204999101</c:v>
+                  <c:v>2.0075825690822993</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.87443981445082164</c:v>
+                  <c:v>1.7555101292030297</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.96477876106194693</c:v>
+                  <c:v>1.6936788874841973</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0564414883671234</c:v>
+                  <c:v>1.7892726447097791</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.92937292090760149</c:v>
+                  <c:v>1.6629015441139965</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.96885297159487216</c:v>
+                  <c:v>1.6111071024845467</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.95011425959780627</c:v>
+                  <c:v>1.530735831809872</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94440607734806625</c:v>
+                  <c:v>1.4456362223756907</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.98627104574189561</c:v>
+                  <c:v>1.425789148804836</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.92219059770340561</c:v>
+                  <c:v>1.3148493473353617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -571,106 +567,106 @@
                   <c:v>1.8418664760228771</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4812642554578039</c:v>
+                  <c:v>2.7282909742587163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2713997203666303</c:v>
+                  <c:v>3.4687483817513334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.119997680083517</c:v>
+                  <c:v>3.8849901403549469</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0971683105313395</c:v>
+                  <c:v>4.2624880687241493</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98255595848443167</c:v>
+                  <c:v>4.1881330498937102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0045851391244269</c:v>
+                  <c:v>4.2073362225990829</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0015727226975339</c:v>
+                  <c:v>4.2139531957725209</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99799095931692616</c:v>
+                  <c:v>4.2054871923656449</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.98980860054685571</c:v>
+                  <c:v>4.1626273924931647</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97515452672403347</c:v>
+                  <c:v>4.0592049448551695</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.96148691953621157</c:v>
+                  <c:v>3.9028724581949543</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.93110182824282539</c:v>
+                  <c:v>3.6339716812238918</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.98424818453652274</c:v>
+                  <c:v>3.5767300299017513</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.95942622950819678</c:v>
+                  <c:v>3.431608606557377</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.98046109799588133</c:v>
+                  <c:v>3.364558742277362</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93303027462742516</c:v>
+                  <c:v>3.1392351673071515</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.88002639501794044</c:v>
+                  <c:v>2.7626098073988534</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.95535855003940118</c:v>
+                  <c:v>2.6392828999211977</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0219036881945562</c:v>
+                  <c:v>2.6970929296182962</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.94000984065705306</c:v>
+                  <c:v>2.5352938950077588</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97660235085384794</c:v>
+                  <c:v>2.4759739779699861</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91327684569422396</c:v>
+                  <c:v>2.2612497046214091</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.96542171815930122</c:v>
+                  <c:v>2.183059575022813</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.95126488095238093</c:v>
+                  <c:v>2.0766679067460316</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.96673260204999101</c:v>
+                  <c:v>2.0075825690822993</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.87443981445082164</c:v>
+                  <c:v>1.7555101292030297</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.96477876106194693</c:v>
+                  <c:v>1.6936788874841973</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0564414883671234</c:v>
+                  <c:v>1.7892726447097791</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.92937292090760149</c:v>
+                  <c:v>1.6629015441139965</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.96885297159487216</c:v>
+                  <c:v>1.6111071024845467</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.95011425959780627</c:v>
+                  <c:v>1.530735831809872</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94440607734806625</c:v>
+                  <c:v>1.4456362223756907</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.98627104574189561</c:v>
+                  <c:v>1.425789148804836</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.92219059770340561</c:v>
+                  <c:v>1.3148493473353617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1763,7 +1759,7 @@
   <dimension ref="A2:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,7 +1787,7 @@
         <v>36.368000000000002</v>
       </c>
       <c r="C3">
-        <f>B2/B3</f>
+        <f>$B$2/B3</f>
         <v>1.8418664760228771</v>
       </c>
     </row>
@@ -1804,437 +1800,437 @@
         <v>24.552</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C37" si="0">B3/B4</f>
-        <v>1.4812642554578039</v>
+        <f>$B$2/B4</f>
+        <v>2.7282909742587163</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ref="A5:A37" si="1">A4+1</f>
+        <f t="shared" ref="A5:A37" si="0">A4+1</f>
         <v>4</v>
       </c>
       <c r="B5">
         <v>19.311</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>1.2713997203666303</v>
+        <f t="shared" ref="C5:C37" si="1">$B$2/B5</f>
+        <v>3.4687483817513334</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6">
         <v>17.242000000000001</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>1.119997680083517</v>
+        <f t="shared" si="1"/>
+        <v>3.8849901403549469</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7">
         <v>15.715</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>1.0971683105313395</v>
+        <f t="shared" si="1"/>
+        <v>4.2624880687241493</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8">
         <v>15.994</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.98255595848443167</v>
+        <f t="shared" si="1"/>
+        <v>4.1881330498937102</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9">
         <v>15.920999999999999</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>1.0045851391244269</v>
+        <f t="shared" si="1"/>
+        <v>4.2073362225990829</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10">
         <v>15.896000000000001</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>1.0015727226975339</v>
+        <f t="shared" si="1"/>
+        <v>4.2139531957725209</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11">
         <v>15.928000000000001</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.99799095931692616</v>
+        <f t="shared" si="1"/>
+        <v>4.2054871923656449</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12">
         <v>16.091999999999999</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.98980860054685571</v>
+        <f t="shared" si="1"/>
+        <v>4.1626273924931647</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13">
         <v>16.501999999999999</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0.97515452672403347</v>
+        <f t="shared" si="1"/>
+        <v>4.0592049448551695</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14">
         <v>17.163</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.96148691953621157</v>
+        <f t="shared" si="1"/>
+        <v>3.9028724581949543</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15">
         <v>18.433</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0.93110182824282539</v>
+        <f t="shared" si="1"/>
+        <v>3.6339716812238918</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16">
         <v>18.728000000000002</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.98424818453652274</v>
+        <f t="shared" si="1"/>
+        <v>3.5767300299017513</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17">
         <v>19.52</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.95942622950819678</v>
+        <f t="shared" si="1"/>
+        <v>3.431608606557377</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18">
         <v>19.908999999999999</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0.98046109799588133</v>
+        <f>$B$2/B18</f>
+        <v>3.364558742277362</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19">
         <v>21.338000000000001</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0.93303027462742516</v>
+        <f t="shared" si="1"/>
+        <v>3.1392351673071515</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20">
         <v>24.247</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0.88002639501794044</v>
+        <f t="shared" si="1"/>
+        <v>2.7626098073988534</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21">
         <v>25.38</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0.95535855003940118</v>
+        <f t="shared" si="1"/>
+        <v>2.6392828999211977</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22">
         <v>24.835999999999999</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>1.0219036881945562</v>
+        <f t="shared" si="1"/>
+        <v>2.6970929296182962</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23">
         <v>26.420999999999999</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0.94000984065705306</v>
+        <f t="shared" si="1"/>
+        <v>2.5352938950077588</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24">
         <v>27.053999999999998</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0.97660235085384794</v>
+        <f t="shared" si="1"/>
+        <v>2.4759739779699861</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25">
         <v>29.623000000000001</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0.91327684569422396</v>
+        <f t="shared" si="1"/>
+        <v>2.2612497046214091</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26">
         <v>30.684000000000001</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>0.96542171815930122</v>
+        <f t="shared" si="1"/>
+        <v>2.183059575022813</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27">
         <v>32.256</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0.95126488095238093</v>
+        <f t="shared" si="1"/>
+        <v>2.0766679067460316</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28">
         <v>33.366</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
-        <v>0.96673260204999101</v>
+        <f t="shared" si="1"/>
+        <v>2.0075825690822993</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29">
         <v>38.156999999999996</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
-        <v>0.87443981445082164</v>
+        <f t="shared" si="1"/>
+        <v>1.7555101292030297</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30">
         <v>39.549999999999997</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
-        <v>0.96477876106194693</v>
+        <f>$B$2/B30</f>
+        <v>1.6936788874841973</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31">
         <v>37.436999999999998</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
-        <v>1.0564414883671234</v>
+        <f t="shared" si="1"/>
+        <v>1.7892726447097791</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32">
         <v>40.281999999999996</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
-        <v>0.92937292090760149</v>
+        <f t="shared" si="1"/>
+        <v>1.6629015441139965</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33">
         <v>41.576999999999998</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
-        <v>0.96885297159487216</v>
+        <f t="shared" si="1"/>
+        <v>1.6111071024845467</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34">
         <v>43.76</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
-        <v>0.95011425959780627</v>
+        <f t="shared" si="1"/>
+        <v>1.530735831809872</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35">
         <v>46.335999999999999</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
-        <v>0.94440607734806625</v>
+        <f t="shared" si="1"/>
+        <v>1.4456362223756907</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36">
         <v>46.981000000000002</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
-        <v>0.98627104574189561</v>
+        <f t="shared" si="1"/>
+        <v>1.425789148804836</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37">
         <v>50.945</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
-        <v>0.92219059770340561</v>
+        <f t="shared" si="1"/>
+        <v>1.3148493473353617</v>
       </c>
     </row>
   </sheetData>

--- a/sort/test_with_int.xlsx
+++ b/sort/test_with_int.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\OC\sort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9170C3FD-2A51-4B98-90D8-F327B50545BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3D88B6-B44B-4373-B405-57222D83E59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,8 +59,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -89,6 +96,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>test 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -896,7 +928,525 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8418664760228771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7282909742587163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4687483817513334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8849901403549469</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2624880687241493</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1881330498937102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2073362225990829</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2139531957725209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2054871923656449</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1626273924931647</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0592049448551695</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9028724581949543</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6339716812238918</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5767300299017513</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.431608606557377</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.364558742277362</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1392351673071515</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7626098073988534</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6392828999211977</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.6970929296182962</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5352938950077588</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4759739779699861</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2612497046214091</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.183059575022813</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0766679067460316</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0075825690822993</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7555101292030297</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6936788874841973</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7892726447097791</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6629015441139965</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6111071024845467</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.530735831809872</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4456362223756907</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.425789148804836</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3148493473353617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC1B-4408-A31B-E89D02DBA243}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1301522367"/>
+        <c:axId val="1301521951"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1301522367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1301521951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1301521951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1301522367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1452,6 +2002,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1485,6 +2551,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12CEA190-E543-4E13-A3EF-B0BDC432849B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1756,10 +2858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C37"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,6 +2869,11 @@
     <col min="3" max="3" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
@@ -2234,6 +3341,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
